--- a/app/config/tables/farms/forms/farms/farms.xlsx
+++ b/app/config/tables/farms/forms/farms/farms.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\farms\forms\farms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="6400" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4687" yWindow="6401" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>setting_name</t>
   </si>
@@ -34,9 +39,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -58,12 +60,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
   </si>
   <si>
     <t>linked_table</t>
-  </si>
-  <si>
-    <t>display.new_instance_text</t>
   </si>
   <si>
     <t>query_name</t>
@@ -284,11 +277,23 @@
   <si>
     <t>'farm_uuid='+opendatakit.encodeURIDataElement('farm_uuid')</t>
   </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -631,6 +636,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -956,54 +969,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1013,7 +1025,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1023,9 +1035,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1035,7 +1047,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1045,7 +1057,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1055,7 +1067,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1065,7 +1077,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1076,7 +1088,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1085,7 +1097,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1096,7 +1108,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1107,7 +1119,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1118,7 +1130,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1129,7 +1141,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1140,69 +1152,69 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
     </row>
@@ -1222,16 +1234,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,67 +1252,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>20160210</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1317,75 +1330,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" customWidth="1"/>
     <col min="9" max="9" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1393,27 +1406,27 @@
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="110" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1441,52 +1454,52 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="6"/>
     </row>
   </sheetData>
@@ -1502,136 +1515,134 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="45">
+    </row>
+    <row r="5" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="45">
+    </row>
+    <row r="6" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1648,80 +1659,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="8" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="12"/>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1743,61 +1758,61 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.1640625" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="81" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" ht="16">
+    <row r="8" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" ht="16">
+    <row r="9" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:2" ht="16">
+    <row r="10" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:2" ht="16">
+    <row r="11" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:2" ht="16">
+    <row r="12" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" ht="16">
+    <row r="13" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:2" ht="16">
+    <row r="15" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:2" ht="16">
+    <row r="16" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
   </sheetData>
@@ -1819,70 +1834,70 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
+    </row>
+    <row r="8" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/farms/forms/farms/farms.xlsx
+++ b/app/config/tables/farms/forms/farms/farms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4687" yWindow="6401" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4687" yWindow="6401" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>setting_name</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>auxillaryHash</t>
   </si>
   <si>
     <t>required</t>
@@ -275,9 +272,6 @@
     <t>opendatakit.getCurrentInstanceId()</t>
   </si>
   <si>
-    <t>'farm_uuid='+opendatakit.encodeURIDataElement('farm_uuid')</t>
-  </si>
-  <si>
     <t>display.prompt.text</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{ farm_uuid : data('farm_uuid') }</t>
   </si>
 </sst>
 </file>
@@ -1001,21 +1007,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1260,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1269,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1288,31 +1294,31 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1328,20 +1334,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" customWidth="1"/>
-    <col min="9" max="9" width="42.6640625" customWidth="1"/>
+    <col min="7" max="8" width="42.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -1361,72 +1367,79 @@
         <v>29</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="78.55" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="110" x14ac:dyDescent="0.3">
+      <c r="H3" s="11"/>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="110" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1434,6 +1447,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,13 +1472,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1475,19 +1489,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,22 +1559,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
@@ -1586,13 +1600,13 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
@@ -1603,7 +1617,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
@@ -1659,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1686,57 +1700,57 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="12"/>
       <c r="J3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1765,18 +1779,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
@@ -1854,7 +1868,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1862,23 +1876,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>

--- a/app/config/tables/farms/forms/farms/farms.xlsx
+++ b/app/config/tables/farms/forms/farms/farms.xlsx
@@ -192,108 +192,104 @@
     <t>callback</t>
   </si>
   <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>do section fields</t>
+  </si>
+  <si>
+    <t>Farms Fields section:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is to gather information about fields in the farm </t>
+  </si>
+  <si>
+    <t>linked_fields</t>
+  </si>
+  <si>
+    <t>Record all the fields in this farm</t>
+  </si>
+  <si>
+    <t>Add Fields</t>
+  </si>
+  <si>
+    <t>farm_field</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>farm_uuid</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>getUUID</t>
+  </si>
+  <si>
+    <t>farm_uuid = ?</t>
+  </si>
+  <si>
+    <t>[ data('farm_uuid') ]</t>
+  </si>
+  <si>
+    <t>["farm_name","farm_uuid","farm_state", "farm_city", "location_latitude","location_longitude","location_altitude","location_accuracy","farm_num_employee","farm_revenue"]</t>
+  </si>
+  <si>
+    <t>farm_location</t>
+  </si>
+  <si>
+    <t>calculates.getUUID()</t>
+  </si>
+  <si>
+    <t>opendatakit.getCurrentInstanceId()</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{ farm_uuid : data('farm_uuid') }</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('state').uniq().map(function(state){
+return { data_value: state, display: {title: {text: state}}};
+}).value()</t>
+  </si>
+  <si>
     <t>_.map(context, function(place){
-place.name = place.city;
-place.label = place.city;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
+return { data_value = place.city, state: place.state, display: {title: {text: place.city} } };
 })</t>
-  </si>
-  <si>
-    <t>_.chain(context).pluck('state').uniq().map(function(state){
-return {name:state, label:state, data_value:state, display:{text:state}};
-}).value()</t>
-  </si>
-  <si>
-    <t>select_one_dropdown</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>do section fields</t>
-  </si>
-  <si>
-    <t>Farms Fields section:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This section is to gather information about fields in the farm </t>
-  </si>
-  <si>
-    <t>linked_fields</t>
-  </si>
-  <si>
-    <t>Record all the fields in this farm</t>
-  </si>
-  <si>
-    <t>Add Fields</t>
-  </si>
-  <si>
-    <t>farm_field</t>
-  </si>
-  <si>
-    <t>fields</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>farm_uuid</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
-    <t>getUUID</t>
-  </si>
-  <si>
-    <t>farm_uuid = ?</t>
-  </si>
-  <si>
-    <t>[ data('farm_uuid') ]</t>
-  </si>
-  <si>
-    <t>["farm_name","farm_uuid","farm_state", "farm_city", "location_latitude","location_longitude","location_altitude","location_accuracy","farm_num_employee","farm_revenue"]</t>
-  </si>
-  <si>
-    <t>farm_location</t>
-  </si>
-  <si>
-    <t>calculates.getUUID()</t>
-  </si>
-  <si>
-    <t>opendatakit.getCurrentInstanceId()</t>
-  </si>
-  <si>
-    <t>display.prompt.text</t>
-  </si>
-  <si>
-    <t>display.hint.text</t>
-  </si>
-  <si>
-    <t>display.new_instance_label.text</t>
-  </si>
-  <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>{ farm_uuid : data('farm_uuid') }</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1003,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -1043,7 +1039,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1258,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,10 +1303,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1333,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1367,10 +1363,10 @@
         <v>29</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>50</v>
@@ -1381,28 +1377,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
@@ -1422,10 +1418,10 @@
         <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="110" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1501,7 +1497,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,10 +1555,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1571,10 +1567,10 @@
         <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
@@ -1600,13 +1596,13 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
@@ -1700,10 +1696,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1712,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
@@ -1724,10 +1720,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
@@ -1740,17 +1736,17 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="12"/>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1779,18 +1775,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
@@ -1868,7 +1864,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1879,7 +1875,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,12 +1883,12 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>

--- a/app/config/tables/farms/forms/farms/farms.xlsx
+++ b/app/config/tables/farms/forms/farms/farms.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\farms\forms\farms\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4687" yWindow="6401" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4680" yWindow="6400" windowWidth="35880" windowHeight="17500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -288,14 +283,14 @@
   </si>
   <si>
     <t>_.map(context, function(place){
-return { data_value = place.city, state: place.state, display: {title: {text: place.city} } };
+return { data_value:place.city, state: place.state, display: {title: {text: place.city} } };
 })</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -977,16 +972,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1022,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1037,7 +1032,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -1049,7 +1044,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1059,7 +1054,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1069,7 +1064,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1079,7 +1074,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1090,7 +1085,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1099,7 +1094,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1110,7 +1105,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1121,7 +1116,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1132,7 +1127,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1143,7 +1138,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1154,69 +1149,69 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="C19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="C20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
     </row>
@@ -1239,14 +1234,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1261,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1270,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1279,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1309,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1333,17 +1328,17 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="8" width="42.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="8" width="42.83203125" customWidth="1"/>
     <col min="10" max="10" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="78.5">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1421,7 +1416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="60">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1464,9 +1459,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1500,16 +1495,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="E14" s="6"/>
     </row>
   </sheetData>
@@ -1531,14 +1526,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1592,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -1605,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1622,7 +1617,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="31.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
@@ -1639,7 +1634,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="31.5">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1673,13 +1668,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="8" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
+    <col min="6" max="8" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="62.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1729,7 +1724,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
@@ -1768,12 +1763,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="81" customHeight="1">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1789,40 +1784,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="17">
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="17">
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17">
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="17">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="17">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="17">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="17">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="17">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="17">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:2" ht="17.05" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="17">
       <c r="B16" s="14"/>
     </row>
   </sheetData>
@@ -1844,9 +1839,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1870,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="31.5">
       <c r="A6" s="6" t="s">
         <v>72</v>
       </c>
@@ -1894,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="31.5">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1902,7 +1897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
